--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value904.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value904.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.905482542035269</v>
+        <v>1.411322355270386</v>
       </c>
       <c r="B1">
-        <v>2.168303199664526</v>
+        <v>2.902334928512573</v>
       </c>
       <c r="C1">
-        <v>2.236997336541107</v>
+        <v>1.77352511882782</v>
       </c>
       <c r="D1">
-        <v>2.900529894276122</v>
+        <v>1.229152083396912</v>
       </c>
       <c r="E1">
-        <v>2.114022975769727</v>
+        <v>1.018756985664368</v>
       </c>
     </row>
   </sheetData>
